--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="567">
   <si>
     <t>APRIL</t>
   </si>
@@ -1722,6 +1722,12 @@
   </si>
   <si>
     <t>MD/23/24/25392</t>
+  </si>
+  <si>
+    <t>PILZ INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>INV-017490</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2621,6 +2627,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12705,8 +12717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14997,20 +15009,32 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="49"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="48">
-        <f t="shared" ref="H86:H97" si="3">D90+E90+F90+G90</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
+    <row r="90" spans="1:10" ht="15">
+      <c r="A90" s="202">
+        <v>45364</v>
+      </c>
+      <c r="B90" s="203" t="s">
+        <v>565</v>
+      </c>
+      <c r="C90" s="175" t="s">
+        <v>566</v>
+      </c>
+      <c r="D90" s="203">
+        <v>163250</v>
+      </c>
+      <c r="E90" s="203">
+        <v>29385</v>
+      </c>
+      <c r="F90" s="203"/>
+      <c r="G90" s="203"/>
+      <c r="H90" s="67">
+        <f t="shared" ref="H90:H97" si="3">D90+E90+F90+G90</f>
+        <v>192635</v>
+      </c>
+      <c r="I90" s="203"/>
+      <c r="J90" s="175" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="11"/>
@@ -15125,11 +15149,11 @@
       <c r="C98" s="197"/>
       <c r="D98" s="59">
         <f>SUM(D84:D97)</f>
-        <v>66618.34</v>
+        <v>229868.34</v>
       </c>
       <c r="E98" s="59">
         <f>SUM(E84:E97)</f>
-        <v>10638</v>
+        <v>40023</v>
       </c>
       <c r="F98" s="59">
         <f>SUM(F84:F97)</f>
@@ -15141,7 +15165,7 @@
       </c>
       <c r="H98" s="59">
         <f>SUM(H84:H97)</f>
-        <v>78489</v>
+        <v>271124</v>
       </c>
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>

--- a/Copy of GST.xlsx
+++ b/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="567">
   <si>
     <t>APRIL</t>
   </si>
@@ -2023,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2565,6 +2565,15 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2611,16 +2620,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2628,11 +2634,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2916,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2930,36 +2933,36 @@
     <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3179,11 +3182,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -3208,18 +3211,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -4006,11 +4009,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="182"/>
-      <c r="C42" s="183"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="26">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -4035,30 +4038,30 @@
       <c r="J42" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="188" t="s">
+      <c r="A44" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="189"/>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="189"/>
-      <c r="G44" s="189"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="190"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="193"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
-      <c r="H45" s="187"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="189"/>
+      <c r="H45" s="190"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -4334,11 +4337,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="184" t="s">
+      <c r="A56" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="184"/>
-      <c r="C56" s="184"/>
+      <c r="B56" s="187"/>
+      <c r="C56" s="187"/>
       <c r="D56" s="27">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -4363,18 +4366,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="186"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="187"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="189"/>
+      <c r="G57" s="189"/>
+      <c r="H57" s="189"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="190"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -5212,11 +5215,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="192" t="s">
+      <c r="A88" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="193"/>
-      <c r="C88" s="194"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="197"/>
       <c r="D88" s="27">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -5241,30 +5244,30 @@
       <c r="J88" s="27"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="188" t="s">
+      <c r="A90" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="189"/>
-      <c r="C90" s="189"/>
-      <c r="D90" s="189"/>
-      <c r="E90" s="189"/>
-      <c r="F90" s="189"/>
-      <c r="G90" s="189"/>
-      <c r="H90" s="189"/>
-      <c r="I90" s="189"/>
-      <c r="J90" s="190"/>
+      <c r="B90" s="192"/>
+      <c r="C90" s="192"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="192"/>
+      <c r="F90" s="192"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="192"/>
+      <c r="J90" s="193"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="185" t="s">
+      <c r="A91" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="186"/>
-      <c r="C91" s="186"/>
-      <c r="D91" s="186"/>
-      <c r="E91" s="186"/>
-      <c r="F91" s="186"/>
-      <c r="G91" s="186"/>
-      <c r="H91" s="187"/>
+      <c r="B91" s="189"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="189"/>
+      <c r="F91" s="189"/>
+      <c r="G91" s="189"/>
+      <c r="H91" s="190"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -5486,11 +5489,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="184" t="s">
+      <c r="A100" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="184"/>
-      <c r="C100" s="184"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
       <c r="D100" s="27">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -5515,18 +5518,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="185" t="s">
+      <c r="A101" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="186"/>
-      <c r="H101" s="186"/>
-      <c r="I101" s="186"/>
-      <c r="J101" s="187"/>
+      <c r="B101" s="189"/>
+      <c r="C101" s="189"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="189"/>
+      <c r="F101" s="189"/>
+      <c r="G101" s="189"/>
+      <c r="H101" s="189"/>
+      <c r="I101" s="189"/>
+      <c r="J101" s="190"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -6181,11 +6184,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="181" t="s">
+      <c r="A125" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="182"/>
-      <c r="C125" s="183"/>
+      <c r="B125" s="185"/>
+      <c r="C125" s="186"/>
       <c r="D125" s="26">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -6374,6 +6377,41 @@
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.6">
+      <c r="D137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="D138" s="1">
+        <f>D12+D56+D100</f>
+        <v>4455840</v>
+      </c>
+      <c r="F138" s="1">
+        <f>F12+F56+F100</f>
+        <v>401025.29000000004</v>
+      </c>
+      <c r="G138" s="1">
+        <f>G12+G56+G100</f>
+        <v>401025.29000000004</v>
+      </c>
+      <c r="H138" s="1">
+        <f>H12+H56+H100</f>
+        <v>5257891</v>
+      </c>
     </row>
     <row r="290" spans="1:10" s="60" customFormat="1" ht="16.8" customHeight="1">
       <c r="A290" s="70"/>
@@ -6422,10 +6460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J114"/>
+  <dimension ref="A2:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D128" sqref="D128:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6444,30 +6482,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6554,11 +6592,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="33">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -6583,18 +6621,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7252,11 +7290,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="196" t="s">
+      <c r="A32" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="196"/>
-      <c r="C32" s="196"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="201"/>
       <c r="D32" s="43">
         <f>SUM(D10:D31)</f>
         <v>309451.44999999995</v>
@@ -7286,30 +7324,30 @@
       <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="189"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
+      <c r="B34" s="192"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="193"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="187"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="190"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -7450,11 +7488,11 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
       <c r="D41" s="33">
         <f>SUM(D37:D40)</f>
         <v>613000</v>
@@ -7479,18 +7517,18 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="185" t="s">
+      <c r="A42" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="187"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
@@ -8436,11 +8474,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="198" t="s">
+      <c r="A77" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="198"/>
-      <c r="C77" s="198"/>
+      <c r="B77" s="200"/>
+      <c r="C77" s="200"/>
       <c r="D77" s="38">
         <f>SUM(D44:D76)</f>
         <v>385770.4</v>
@@ -8483,30 +8521,30 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="188" t="s">
+      <c r="A79" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="189"/>
-      <c r="C79" s="189"/>
-      <c r="D79" s="189"/>
-      <c r="E79" s="189"/>
-      <c r="F79" s="189"/>
-      <c r="G79" s="189"/>
-      <c r="H79" s="189"/>
-      <c r="I79" s="189"/>
-      <c r="J79" s="190"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="192"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="192"/>
+      <c r="F79" s="192"/>
+      <c r="G79" s="192"/>
+      <c r="H79" s="192"/>
+      <c r="I79" s="192"/>
+      <c r="J79" s="193"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="185" t="s">
+      <c r="A80" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="186"/>
-      <c r="C80" s="186"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
-      <c r="F80" s="186"/>
-      <c r="G80" s="186"/>
-      <c r="H80" s="187"/>
+      <c r="B80" s="189"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="189"/>
+      <c r="F80" s="189"/>
+      <c r="G80" s="189"/>
+      <c r="H80" s="190"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
@@ -8620,11 +8658,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="195" t="s">
+      <c r="A85" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="195"/>
-      <c r="C85" s="195"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
       <c r="D85" s="33">
         <f>SUM(D82:D84)</f>
         <v>204284</v>
@@ -8649,18 +8687,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="185" t="s">
+      <c r="A86" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="186"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="186"/>
-      <c r="E86" s="186"/>
-      <c r="F86" s="186"/>
-      <c r="G86" s="186"/>
-      <c r="H86" s="186"/>
-      <c r="I86" s="186"/>
-      <c r="J86" s="187"/>
+      <c r="B86" s="189"/>
+      <c r="C86" s="189"/>
+      <c r="D86" s="189"/>
+      <c r="E86" s="189"/>
+      <c r="F86" s="189"/>
+      <c r="G86" s="189"/>
+      <c r="H86" s="189"/>
+      <c r="I86" s="189"/>
+      <c r="J86" s="190"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="45" t="s">
@@ -9415,11 +9453,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="197" t="s">
+      <c r="A114" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="197"/>
-      <c r="C114" s="197"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="199"/>
       <c r="D114" s="59">
         <f>SUM(D88:D113)</f>
         <v>438291.73</v>
@@ -9443,9 +9481,54 @@
       <c r="I114" s="59"/>
       <c r="J114" s="59"/>
     </row>
+    <row r="128" spans="1:10" ht="31.2">
+      <c r="D128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10">
+      <c r="D129" s="1">
+        <f>D7+D41+D85</f>
+        <v>950210</v>
+      </c>
+      <c r="F129" s="1">
+        <f>F7+F41+F85</f>
+        <v>85519.1</v>
+      </c>
+      <c r="G129" s="1">
+        <f>G7+G41+G85</f>
+        <v>85519.1</v>
+      </c>
+      <c r="H129" s="1">
+        <f>H7+H41+H85</f>
+        <v>1121248.2</v>
+      </c>
+      <c r="J129" s="1">
+        <f>D129+F129+G129</f>
+        <v>1121248.2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:B114"/>
   <mergeCells count="15">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A114:C114"/>
@@ -9455,12 +9538,6 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9469,10 +9546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K124"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130:H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9491,30 +9568,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9559,11 +9636,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="21">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="15">
         <f>SUM(D5:D5)</f>
         <v>0</v>
@@ -9588,18 +9665,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="16" t="s">
@@ -10208,11 +10285,11 @@
       <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="21">
-      <c r="A29" s="199" t="s">
+      <c r="A29" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="199"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
       <c r="D29" s="26">
         <f>SUM(D9:D28)</f>
         <v>256840.25</v>
@@ -10238,30 +10315,30 @@
       <c r="K29" s="60"/>
     </row>
     <row r="31" spans="1:11" ht="21">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="191" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="21">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="187"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="190"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -10507,11 +10584,11 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="27">
         <f>SUM(D34:D41)</f>
         <v>983754</v>
@@ -10536,18 +10613,18 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="186"/>
-      <c r="J43" s="187"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1">
       <c r="A44" s="16" t="s">
@@ -11577,11 +11654,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="184" t="s">
+      <c r="A81" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="184"/>
-      <c r="C81" s="184"/>
+      <c r="B81" s="187"/>
+      <c r="C81" s="187"/>
       <c r="D81" s="27">
         <f>SUM(D45:D80)</f>
         <v>599787.05000000005</v>
@@ -11606,30 +11683,30 @@
       <c r="J81" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="188" t="s">
+      <c r="A83" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="B83" s="189"/>
-      <c r="C83" s="189"/>
-      <c r="D83" s="189"/>
-      <c r="E83" s="189"/>
-      <c r="F83" s="189"/>
-      <c r="G83" s="189"/>
-      <c r="H83" s="189"/>
-      <c r="I83" s="189"/>
-      <c r="J83" s="190"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="192"/>
+      <c r="E83" s="192"/>
+      <c r="F83" s="192"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="192"/>
+      <c r="J83" s="193"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="186"/>
-      <c r="C84" s="186"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="186"/>
-      <c r="F84" s="186"/>
-      <c r="G84" s="186"/>
-      <c r="H84" s="187"/>
+      <c r="B84" s="189"/>
+      <c r="C84" s="189"/>
+      <c r="D84" s="189"/>
+      <c r="E84" s="189"/>
+      <c r="F84" s="189"/>
+      <c r="G84" s="189"/>
+      <c r="H84" s="190"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -11774,11 +11851,11 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="184" t="s">
+      <c r="A90" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
       <c r="D90" s="27">
         <f>SUM(D86:D89)</f>
         <v>297318</v>
@@ -11803,18 +11880,18 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="185" t="s">
+      <c r="A91" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="186"/>
-      <c r="C91" s="186"/>
-      <c r="D91" s="186"/>
-      <c r="E91" s="186"/>
-      <c r="F91" s="186"/>
-      <c r="G91" s="186"/>
-      <c r="H91" s="186"/>
-      <c r="I91" s="186"/>
-      <c r="J91" s="187"/>
+      <c r="B91" s="189"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="189"/>
+      <c r="F91" s="189"/>
+      <c r="G91" s="189"/>
+      <c r="H91" s="189"/>
+      <c r="I91" s="189"/>
+      <c r="J91" s="190"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1">
       <c r="A92" s="16" t="s">
@@ -12653,11 +12730,11 @@
       </c>
     </row>
     <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="200" t="s">
+      <c r="A122" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="200"/>
-      <c r="C122" s="200"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="202"/>
       <c r="D122" s="146">
         <f>SUM(D93:D121)</f>
         <v>369422.4</v>
@@ -12682,31 +12759,74 @@
       <c r="J122" s="146"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="201"/>
-      <c r="B124" s="201"/>
-      <c r="C124" s="201"/>
-      <c r="D124" s="201"/>
-      <c r="E124" s="201"/>
+      <c r="A124" s="203"/>
+      <c r="B124" s="203"/>
+      <c r="C124" s="203"/>
+      <c r="D124" s="203"/>
+      <c r="E124" s="203"/>
+    </row>
+    <row r="130" spans="4:9" ht="15.6">
+      <c r="D130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9">
+      <c r="D131" s="1">
+        <f>D6+D42+D90</f>
+        <v>1281072</v>
+      </c>
+      <c r="E131" s="1">
+        <f>E42</f>
+        <v>2379.6</v>
+      </c>
+      <c r="F131" s="1">
+        <f>F6+F42+F90</f>
+        <v>114107.6</v>
+      </c>
+      <c r="G131" s="1">
+        <f>G6+G42+G90</f>
+        <v>114107.6</v>
+      </c>
+      <c r="H131" s="1">
+        <f>D131+E131+F131+G131</f>
+        <v>1511666.8000000003</v>
+      </c>
+      <c r="I131" s="1">
+        <f>D131+E131+F131+G131</f>
+        <v>1511666.8000000003</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:B127"/>
   <mergeCells count="16">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12715,10 +12835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J98"/>
+  <dimension ref="A2:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C101" sqref="C100:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12737,30 +12857,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -12891,11 +13011,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
       <c r="D9" s="33">
         <f>SUM(D5:D8)</f>
         <v>769530</v>
@@ -12920,18 +13040,18 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -13828,11 +13948,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
       <c r="D43" s="43">
         <f>SUM(D12:D42)</f>
         <v>371316.08</v>
@@ -13862,30 +13982,30 @@
       <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="191" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="189"/>
-      <c r="C45" s="189"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="189"/>
-      <c r="J45" s="190"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="187"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="189"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="189"/>
+      <c r="H46" s="190"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
@@ -13945,11 +14065,11 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="195" t="s">
+      <c r="A49" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="195"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="198"/>
       <c r="D49" s="33">
         <f>SUM(D48)</f>
         <v>292660</v>
@@ -13974,18 +14094,18 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="186"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="186"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="187"/>
+      <c r="B50" s="189"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="189"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="189"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="189"/>
+      <c r="J50" s="190"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="34" t="s">
@@ -14553,11 +14673,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="196" t="s">
+      <c r="A71" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="201"/>
       <c r="D71" s="43">
         <f>SUM(D52:D70)</f>
         <v>147739.79</v>
@@ -14582,30 +14702,30 @@
       <c r="J71" s="43"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="188" t="s">
+      <c r="A73" s="191" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="189"/>
-      <c r="C73" s="189"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="189"/>
-      <c r="H73" s="189"/>
-      <c r="I73" s="189"/>
-      <c r="J73" s="190"/>
+      <c r="B73" s="192"/>
+      <c r="C73" s="192"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="192"/>
+      <c r="F73" s="192"/>
+      <c r="G73" s="192"/>
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="193"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="185" t="s">
+      <c r="A74" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="186"/>
-      <c r="C74" s="186"/>
-      <c r="D74" s="186"/>
-      <c r="E74" s="186"/>
-      <c r="F74" s="186"/>
-      <c r="G74" s="186"/>
-      <c r="H74" s="187"/>
+      <c r="B74" s="189"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="189"/>
+      <c r="F74" s="189"/>
+      <c r="G74" s="189"/>
+      <c r="H74" s="190"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
@@ -14658,7 +14778,8 @@
         <v>167950.8</v>
       </c>
       <c r="H76" s="8">
-        <v>2202021.6</v>
+        <f>D76+E76+F76+G76</f>
+        <v>2198021.6</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -14684,7 +14805,8 @@
         <v>3203.4</v>
       </c>
       <c r="H77" s="8">
-        <v>42000</v>
+        <f>D77+E77+F77+G77</f>
+        <v>41999.8</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="144" t="s">
@@ -14771,19 +14893,16 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="195" t="s">
+      <c r="A81" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="195"/>
-      <c r="C81" s="195"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="198"/>
       <c r="D81" s="33">
         <f>SUM(D76:D80)</f>
         <v>3815058</v>
       </c>
-      <c r="E81" s="33">
-        <f>SUM(D81)</f>
-        <v>3815058</v>
-      </c>
+      <c r="E81" s="33"/>
       <c r="F81" s="33">
         <f>SUM(F76:F80)</f>
         <v>346595.25</v>
@@ -14794,24 +14913,24 @@
       </c>
       <c r="H81" s="33">
         <f>SUM(H76:H80)</f>
-        <v>4512248.6999999993</v>
+        <v>4508248.5</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="185" t="s">
+      <c r="A82" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="186"/>
-      <c r="C82" s="186"/>
-      <c r="D82" s="186"/>
-      <c r="E82" s="186"/>
-      <c r="F82" s="186"/>
-      <c r="G82" s="186"/>
-      <c r="H82" s="186"/>
-      <c r="I82" s="186"/>
-      <c r="J82" s="187"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="189"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="189"/>
+      <c r="F82" s="189"/>
+      <c r="G82" s="189"/>
+      <c r="H82" s="189"/>
+      <c r="I82" s="189"/>
+      <c r="J82" s="190"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="45" t="s">
@@ -15010,28 +15129,28 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15">
-      <c r="A90" s="202">
+      <c r="A90" s="182">
         <v>45364</v>
       </c>
-      <c r="B90" s="203" t="s">
+      <c r="B90" s="183" t="s">
         <v>565</v>
       </c>
       <c r="C90" s="175" t="s">
         <v>566</v>
       </c>
-      <c r="D90" s="203">
+      <c r="D90" s="183">
         <v>163250</v>
       </c>
-      <c r="E90" s="203">
+      <c r="E90" s="183">
         <v>29385</v>
       </c>
-      <c r="F90" s="203"/>
-      <c r="G90" s="203"/>
+      <c r="F90" s="183"/>
+      <c r="G90" s="183"/>
       <c r="H90" s="67">
         <f t="shared" ref="H90:H97" si="3">D90+E90+F90+G90</f>
         <v>192635</v>
       </c>
-      <c r="I90" s="203"/>
+      <c r="I90" s="183"/>
       <c r="J90" s="175" t="s">
         <v>123</v>
       </c>
@@ -15142,11 +15261,11 @@
       <c r="J97" s="57"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="197" t="s">
+      <c r="A98" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="197"/>
-      <c r="C98" s="197"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="199"/>
       <c r="D98" s="59">
         <f>SUM(D84:D97)</f>
         <v>229868.34</v>
@@ -15170,8 +15289,54 @@
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>
     </row>
+    <row r="105" spans="1:10" ht="31.2">
+      <c r="D105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="D106" s="181">
+        <f>D9+D49+D81</f>
+        <v>4877248</v>
+      </c>
+      <c r="E106" s="181"/>
+      <c r="F106" s="181">
+        <f>F9+F49+F81</f>
+        <v>442191.25</v>
+      </c>
+      <c r="G106" s="181">
+        <f>G9+G49+G81</f>
+        <v>442191.25</v>
+      </c>
+      <c r="H106" s="181">
+        <f>H9+H49+H81</f>
+        <v>5761632.5</v>
+      </c>
+      <c r="I106" s="1">
+        <f>D106+F106+G106</f>
+        <v>5761630.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="A98:C98"/>
@@ -15181,12 +15346,6 @@
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
